--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="310">
   <si>
     <t>Array ID</t>
   </si>
@@ -671,6 +671,513 @@
   </si>
   <si>
     <t>y_schedule[</t>
+  </si>
+  <si>
+    <t>courses[0] = {"title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "Perlow", "code" =&gt; "2090", "section" =&gt; "1", "day" =&gt; "TU", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 209", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[1] = {"title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "Perlow", "code" =&gt; "2090", "section" =&gt; "2", "day" =&gt; "TU", "time" =&gt; "01:15 PM", "location" =&gt; "ALD 209", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[2] = {"title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "Gabarro", "code" =&gt; "2090", "section" =&gt; "3", "day" =&gt; "TH", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 211", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[3] = {"title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "Snook", "code" =&gt; "2090", "section" =&gt; "4", "day" =&gt; "TH", "time" =&gt; "01:15 PM", "location" =&gt; "ALD 211", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[4] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "van Bever", "code" =&gt; "1504", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 102", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[5] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Kaufman", "code" =&gt; "1504", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "HAW 102", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[6] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Huber", "code" =&gt; "1504", "section" =&gt; "3", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 210", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[7] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Huber", "code" =&gt; "1504", "section" =&gt; "4", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "ALD 210", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[8] = {"title" =&gt; "Building Life Science Businesses", "faculty" =&gt; "Hamermesh", "code" =&gt; "1665", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 210", "quarter_credits" =&gt; "Q1,1.5", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[9] = {"title" =&gt; "Business Analysis and Valuation Using Financial Statements", "faculty" =&gt; "Healy;  Srinivasan", "code" =&gt; "1306", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "HAW 101", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[10] = {"title" =&gt; "Business Analysis and Valuation Using Financial Statements", "faculty" =&gt; "Healy;  Srinivasan", "code" =&gt; "1306", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 101", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[11] = {"title" =&gt; "Business at the Base of the Pyramid", "faculty" =&gt; "Rangan", "code" =&gt; "1908", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "HAW 201", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[12] = {"title" =&gt; "Business at the Base of the Pyramid", "faculty" =&gt; "Cole", "code" =&gt; "1908", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 209", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[13] = {"title" =&gt; "Consumer Marketing", "faculty" =&gt; "Gourville", "code" =&gt; "1940", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 201", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[14] = {"title" =&gt; "Consumer Marketing", "faculty" =&gt; "Keinan", "code" =&gt; "1940", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "HAW 201", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[15] = {"title" =&gt; "Contemporary South Asia: Entrepreneurial Solutions to Intractable Social &amp; Economic Problems", "faculty" =&gt; "Khanna", "code" =&gt; "1266", "section" =&gt; "0", "day" =&gt; "M", "time" =&gt; "03:30 PM", "location" =&gt; " Harvard University Cambridge campus", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[16] = {"title" =&gt; "Corporate Financial Management", "faculty" =&gt; "Luehrman", "code" =&gt; "1416", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 201", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[17] = {"title" =&gt; "Corporate Financial Management", "faculty" =&gt; "White", "code" =&gt; "1416", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "01:20 PM", "location" =&gt; "ALD 209", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[18] = {"title" =&gt; "Creating and Sustaining Competitive Advantage", "faculty" =&gt; "Van den Steen", "code" =&gt; "1285", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "ALD 208", "quarter_credits" =&gt; "Q1,1.5", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[19] = {"title" =&gt; "Creating Shared Value: Entrepreneurial and Corporate Models for a Changing Economy will not be offfered", "faculty" =&gt; "Marquis", "code" =&gt; " ", "section" =&gt; " ", "day" =&gt; " ", "time" =&gt; " ", "location" =&gt; " ", "quarter_credits" =&gt; " ", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[20] = {"title" =&gt; "Design Thinking and Innovation", "faculty" =&gt; "Datar", "code" =&gt; "1344", "section" =&gt; "1", "day" =&gt; "M", "time" =&gt; "03:30 PM", "location" =&gt; "BATT 122", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[21] = {"title" =&gt; "Design Thinking and Innovation", "faculty" =&gt; "Datar", "code" =&gt; "1344", "section" =&gt; "2", "day" =&gt; "M", "time" =&gt; "05:10 PM", "location" =&gt; "BATT 122", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[22] = {"title" =&gt; "Dynamic Markets", "faculty" =&gt; "Coval", "code" =&gt; "1407", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "HAW 101", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[23] = {"title" =&gt; "The Energy Business and Geopolitics", "faculty" =&gt; "Maurer", "code" =&gt; "1144", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "HAW 101", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[24] = {"title" =&gt; "The Energy Business and Geopolitics", "faculty" =&gt; "Maurer", "code" =&gt; "1144", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "HAW 101", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[25] = {"title" =&gt; "Entrepreneurial Finance", "faculty" =&gt; "Sahlman", "code" =&gt; "1624", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "ALD 208", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[26] = {"title" =&gt; "Entrepreneurial Finance", "faculty" =&gt; "Nanda", "code" =&gt; "1624", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 208", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[27] = {"title" =&gt; "Entrepreneurial Finance", "faculty" =&gt; "Nanda", "code" =&gt; "1624", "section" =&gt; "3", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 208", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[28] = {"title" =&gt; "Entrepreneurship and Global Capitalism", "faculty" =&gt; "Jones", "code" =&gt; "1130", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 202", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[29] = {"title" =&gt; "Entrepreneurship and Global Capitalism", "faculty" =&gt; "Jones", "code" =&gt; "1130", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "HAW 202", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[30] = {"title" =&gt; "Entrepreneurship in Healthcare IT and Services", "faculty" =&gt; "Higgins", "code" =&gt; "1666", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 210", "quarter_credits" =&gt; "Q2,1.5", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[31] = {"title" =&gt; "Executing Strategy", "faculty" =&gt; "Harreld", "code" =&gt; "1263", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "08:30 AM", "location" =&gt; "ALD 012", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[32] = {"title" =&gt; "Executing Strategy", "faculty" =&gt; "Harreld", "code" =&gt; "1263", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 012", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[33] = {"title" =&gt; "Field Course: Business Marketing &amp; Sales", "faculty" =&gt; "Cespedes", "code" =&gt; "6925", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "ALD 208", "quarter_credits" =&gt; "Q2,1.5", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[34] = {"title" =&gt; "Field Course: Commercializing Science", "faculty" =&gt; "Sato", "code" =&gt; "2107", "section" =&gt; "0", "day" =&gt; "W", "time" =&gt; "03:30 PM", "location" =&gt; "HAW 101", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[35] = {"title" =&gt; "Field Course: Health Care Computer Assisted Innovations", "faculty" =&gt; "Herzlinger", "code" =&gt; "6180", "section" =&gt; "0", "day" =&gt; "TU", "time" =&gt; "11:35 AM", "location" =&gt; "HAW 203", "quarter_credits" =&gt; "Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[36] = {"title" =&gt; "Field Course: Innovating in Health Care", "faculty" =&gt; "Herzlinger", "code" =&gt; "6340", "section" =&gt; "0", "day" =&gt; "TU", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 203", "quarter_credits" =&gt; "Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[37] = {"title" =&gt; "Field Course: Innovation in Business, Energy, and Environment", "faculty" =&gt; "Lassiter;  Reinhardt;  Henderson;  Macomber; Toffel", "code" =&gt; "6611", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "HAW 201", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[38] = {"title" =&gt; "Field Course: Product Management 101", "faculty" =&gt; "Eisenmann", "code" =&gt; "6701", "section" =&gt; "0", "day" =&gt; "M", "time" =&gt; "05:30 PM", "location" =&gt; "HAW 203", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[39] = {"title" =&gt; "Financial Management of Smaller Firms", "faculty" =&gt; "Ruback;  Yudkoff", "code" =&gt; "1452", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "08:30 AM", "location" =&gt; "HAW 101", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[40] = {"title" =&gt; "Financial Management of Smaller Firms", "faculty" =&gt; "Ruback;  Yudkoff", "code" =&gt; "1452", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 101", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[41] = {"title" =&gt; "Financial Management of Smaller Firms", "faculty" =&gt; "Ruback;  Yudkoff", "code" =&gt; "1452", "section" =&gt; "3", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "HAW 101", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[42] = {"title" =&gt; "Founders' Dilemmas", "faculty" =&gt; "Wasserman", "code" =&gt; "1676", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 202", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[43] = {"title" =&gt; "Founders' Dilemmas", "faculty" =&gt; "Wasserman", "code" =&gt; "1676", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "HAW 202", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[44] = {"title" =&gt; "Fundamentals of Financial Reporting and Analysis will not be offered", "faculty" =&gt; "Hawkins", "code" =&gt; " ", "section" =&gt; " ", "day" =&gt; " ", "time" =&gt; " ", "location" =&gt; " ", "quarter_credits" =&gt; " ", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[45] = {"title" =&gt; "Games of Chance and Strategy will not be offered", "faculty" =&gt; "Kohlberg", "code" =&gt; " ", "section" =&gt; " ", "day" =&gt; " ", "time" =&gt; " ", "location" =&gt; " ", "quarter_credits" =&gt; " ", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[46] = {"title" =&gt; "Globalization and Emerging Markets", "faculty" =&gt; "Musacchio", "code" =&gt; "1151", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 208", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[47] = {"title" =&gt; "Globalization and Emerging Markets", "faculty" =&gt; "Musacchio", "code" =&gt; "1151", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 208", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[48] = {"title" =&gt; "History of American Democracy", "faculty" =&gt; "Moss", "code" =&gt; "1139", "section" =&gt; "0", "day" =&gt; "W", "time" =&gt; "03:30 PM", "location" =&gt; "ALD 207", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[49] = {"title" =&gt; "Innovating in Health Care Intensive Course", "faculty" =&gt; "Herzlinger", "code" =&gt; "2180", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 203", "quarter_credits" =&gt; "Q1,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[50] = {"title" =&gt; "Innovation in Business, Energy, and Environment", "faculty" =&gt; "Lassiter;  Reinhardt;  Henderson;  Macomber; Toffel", "code" =&gt; "1165", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "HAW 201", "quarter_credits" =&gt; "Q1,1.5", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[51] = {"title" =&gt; "Investment Strategies", "faculty" =&gt; "Cohen;  Malloy", "code" =&gt; "1446", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 102", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[52] = {"title" =&gt; "Investment Strategies", "faculty" =&gt; "Cohen;  Malloy", "code" =&gt; "1446", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "HAW 102", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[53] = {"title" =&gt; "Leading the Global 1000", "faculty" =&gt; "Serafeim", "code" =&gt; "2013", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 209", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[54] = {"title" =&gt; "Legal Aspects of Entrepreneurship", "faculty" =&gt; "Goldberg", "code" =&gt; "1555", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "HAW 202", "quarter_credits" =&gt; "Q2,1.5", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[55] = {"title" =&gt; "Legal Aspects of Management", "faculty" =&gt; "Goldberg", "code" =&gt; "1545", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "HAW 202", "quarter_credits" =&gt; "Q1,1.5", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[56] = {"title" =&gt; "Managing International Trade and Investment", "faculty" =&gt; "Roscini", "code" =&gt; "1166", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "HAW 201", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[57] = {"title" =&gt; "Managing International Trade and Investment", "faculty" =&gt; "Roscini", "code" =&gt; "1166", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "HAW 201", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[58] = {"title" =&gt; "The Moral Leader", "faculty" =&gt; "Sucher", "code" =&gt; "1562", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "HAW 203", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[59] = {"title" =&gt; "The Moral Leader", "faculty" =&gt; "Badaracco", "code" =&gt; "1562", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "HAW 202", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[60] = {"title" =&gt; "Negotiation", "faculty" =&gt; "Mohan", "code" =&gt; "2240", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 210", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[61] = {"title" =&gt; "Negotiation", "faculty" =&gt; "Luca", "code" =&gt; "2240", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 210", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[62] = {"title" =&gt; "Negotiation", "faculty" =&gt; "Mohan", "code" =&gt; "2240", "section" =&gt; "3", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "ALD 210", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[63] = {"title" =&gt; "Negotiation", "faculty" =&gt; "Wasynczuk", "code" =&gt; "2240", "section" =&gt; "4", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "HAW 203", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[64] = {"title" =&gt; "Negotiation Intensive Course", "faculty" =&gt; "Gino", "code" =&gt; "2241", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "HAW 203", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[65] = {"title" =&gt; "The Online Economy: Strategy and Entrepreneurship", "faculty" =&gt; "Edelman", "code" =&gt; "1760", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 012", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[66] = {"title" =&gt; "The Online Economy: Strategy and Entrepreneurship", "faculty" =&gt; "Edelman", "code" =&gt; "1760", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "ALD 012", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[67] = {"title" =&gt; "Operations Strategy: Managing Growth", "faculty" =&gt; "Pisano", "code" =&gt; "2166", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 207", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[68] = {"title" =&gt; "Operations Strategy: Managing Growth", "faculty" =&gt; "Drake", "code" =&gt; "2166", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "ALD 207", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[69] = {"title" =&gt; "Private Equity Finance", "faculty" =&gt; "Ivashina", "code" =&gt; "1440", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 211", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[70] = {"title" =&gt; "Private Equity Finance", "faculty" =&gt; "Gompers", "code" =&gt; "1440", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 211", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[71] = {"title" =&gt; "Real Property", "faculty" =&gt; "Segel", "code" =&gt; "1684", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "ALD 012", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[72] = {"title" =&gt; "Real Property", "faculty" =&gt; "Segel", "code" =&gt; "1684", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 012", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[73] = {"title" =&gt; "Running a Federal Agency: Lessons from Business, Technology and Game Theory", "faculty" =&gt; "Genachowski", "code" =&gt; "1535", "section" =&gt; "0", "day" =&gt; "W", "time" =&gt; "05:00 PM", "location" =&gt; " Harvard Law School campus", "quarter_credits" =&gt; "Q1Q2,1.5", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[74] = {"title" =&gt; "Strategic Marketing in Creative Industries", "faculty" =&gt; "Elberse", "code" =&gt; "1914", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 207", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[75] = {"title" =&gt; "Strategic Marketing in Creative Industries", "faculty" =&gt; "Elberse", "code" =&gt; "1914", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 207", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[76] = {"title" =&gt; "Strategy and Technology", "faculty" =&gt; "Hagiu", "code" =&gt; "1286", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "08:30 AM", "location" =&gt; "ALD 209", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[77] = {"title" =&gt; "Strategy and Technology", "faculty" =&gt; "Hagiu", "code" =&gt; "1286", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "ALD 209", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[78] = {"title" =&gt; "Supply Chain Management", "faculty" =&gt; "Hammond", "code" =&gt; "2108", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "ALD 012", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[79] = {"title" =&gt; "Understanding Technology Businesses", "faculty" =&gt; "Shih", "code" =&gt; "2173", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "08:30 AM", "location" =&gt; "ALD 211", "quarter_credits" =&gt; "Q1Q2,3", "term" =&gt; "Fall 2013", }</t>
+  </si>
+  <si>
+    <t>courses[80] = {"title" =&gt; "Agribusiness", "faculty" =&gt; "Bell", "code" =&gt; "1915", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q4,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[81] = {"title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "DeLong", "code" =&gt; "2090", "section" =&gt; "1", "day" =&gt; "TU", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[82] = {"title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "DeLong", "code" =&gt; "2090", "section" =&gt; "2", "day" =&gt; "TU", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[83] = {"title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "Snook", "code" =&gt; "2090", "section" =&gt; "3", "day" =&gt; "TH", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[84] = {"title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "Snook", "code" =&gt; "2090", "section" =&gt; "4", "day" =&gt; "TH", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[85] = {"title" =&gt; "Behavioral and Value Investing", "faculty" =&gt; "Baker;  Greenwood", "code" =&gt; "1495", "section" =&gt; "0", "day" =&gt; "TH", "time" =&gt; "03:30 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[86] = {"title" =&gt; "The Board of Directors and Corporate Governance", "faculty" =&gt; "Lorsch", "code" =&gt; "2010", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:10 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[87] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Shih", "code" =&gt; "1504", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[88] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Huber", "code" =&gt; "1504", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[89] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Shih", "code" =&gt; "1504", "section" =&gt; "3", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[90] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "van Bever", "code" =&gt; "1504", "section" =&gt; "5", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[91] = {"title" =&gt; "Business at the Base of the Pyramid", "faculty" =&gt; "Chu", "code" =&gt; "1908", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[92] = {"title" =&gt; "The Coming of Managerial Capitalism: The United States", "faculty" =&gt; "Nicholas", "code" =&gt; "1122", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[93] = {"title" =&gt; "The Coming of Managerial Capitalism: The United States", "faculty" =&gt; "Nicholas", "code" =&gt; "1122", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[94] = {"title" =&gt; "Competing Globally", "faculty" =&gt; "Alcacer", "code" =&gt; "1279", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[95] = {"title" =&gt; "Competing Globally", "faculty" =&gt; "Alcacer", "code" =&gt; "1279", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[96] = {"title" =&gt; "Competing with Social Networks", "faculty" =&gt; "Piskorski", "code" =&gt; "1217", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[97] = {"title" =&gt; "Competing with Social Networks", "faculty" =&gt; "Piskorski", "code" =&gt; "1217", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[98] = {"title" =&gt; "Corporate Strategy", "faculty" =&gt; "Collis", "code" =&gt; "1230", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[99] = {"title" =&gt; "Corporate Strategy", "faculty" =&gt; "Collis", "code" =&gt; "1230", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[100] = {"title" =&gt; "Creating the Modern Financial System", "faculty" =&gt; "Moss", "code" =&gt; "1160", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[101] = {"title" =&gt; "Creating Value Through Corporate Restructuring", "faculty" =&gt; "Gilson", "code" =&gt; "1420", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[102] = {"title" =&gt; "Creating Value Through Corporate Restructuring", "faculty" =&gt; "Gilson", "code" =&gt; "1420", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[103] = {"title" =&gt; "Creating Value Through Corporate Restructuring", "faculty" =&gt; "Mugford", "code" =&gt; "1420", "section" =&gt; "3", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[104] = {"title" =&gt; "Creative High-Impact Ventures: Entrepreneurs Who Changed the World", "faculty" =&gt; "Khaire", "code" =&gt; "1636", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[105] = {"title" =&gt; "Deals", "faculty" =&gt; "Mohan", "code" =&gt; "2267", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[106] = {"title" =&gt; "Designing Competitive Organizations", "faculty" =&gt; "Simons", "code" =&gt; "1373", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[107] = {"title" =&gt; "Designing Competitive Organizations", "faculty" =&gt; "Mikes", "code" =&gt; "1373", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[108] = {"title" =&gt; "Digital Innovation and Transformation", "faculty" =&gt; "Lakhani", "code" =&gt; "2134", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[109] = {"title" =&gt; "Digital Innovation and Transformation", "faculty" =&gt; "Iansiti", "code" =&gt; "2134", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[110] = {"title" =&gt; "Digital Marketing Strategy", "faculty" =&gt; "Gupta", "code" =&gt; "1990", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[111] = {"title" =&gt; "Digital Marketing Strategy", "faculty" =&gt; "Teixeira", "code" =&gt; "1990", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[112] = {"title" =&gt; "Doing Business in China", "faculty" =&gt; "Kirby", "code" =&gt; "1575", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[113] = {"title" =&gt; "Enterprise Risk Management: Strategy and Leadership in the Face of Large-Scale Uncertainties", "faculty" =&gt; "Leonard", "code" =&gt; "1518", "section" =&gt; "0", "day" =&gt; "M", "time" =&gt; "03:30 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[114] = {"title" =&gt; "Entrepreneurial Solutions for Market Failure", "faculty" =&gt; "Bower", "code" =&gt; "1585", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[115] = {"title" =&gt; "Entrepreneurship in Education Reform", "faculty" =&gt; "Kim", "code" =&gt; "1602", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[116] = {"title" =&gt; "Field Course: Entrepreneurial Solutions to Market Failure", "faculty" =&gt; "Bower", "code" =&gt; "6580", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[117] = {"title" =&gt; "Field Course: Entrepreneurship through Acquisition", "faculty" =&gt; "Ruback;  Yudkoff", "code" =&gt; "6452", "section" =&gt; "0", "day" =&gt; "TH", "time" =&gt; "01:30 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[118] = {"title" =&gt; "Field Course: Housing in the United States", "faculty" =&gt; "Retsinas", "code" =&gt; "6462", "section" =&gt; "0", "day" =&gt; "TU", "time" =&gt; "03:30 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[119] = {"title" =&gt; "Field Course: Impact Investing and Social Commercial Models", "faculty" =&gt; "Chu;  Cole", "code" =&gt; "6908", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[120] = {"title" =&gt; "Field Course: Launching Technology Ventures", "faculty" =&gt; "Eisenmann", "code" =&gt; "6750", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[121] = {"title" =&gt; "Field Course: Planning Your Business in China", "faculty" =&gt; "Kirby", "code" =&gt; "6575", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q4,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[122] = {"title" =&gt; "Field Course: Stock Pitching", "faculty" =&gt; "Cohen", "code" =&gt; "6446", "section" =&gt; "0", "day" =&gt; "M", "time" =&gt; "03:30 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[123] = {"title" =&gt; "General Management: Processes and Action", "faculty" =&gt; "Garvin", "code" =&gt; "1556", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[124] = {"title" =&gt; "General Management: Processes and Action", "faculty" =&gt; "Garvin", "code" =&gt; "1556", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[125] = {"title" =&gt; "Global Strategic Management", "faculty" =&gt; "Siegel", "code" =&gt; "1534", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[126] = {"title" =&gt; "Great Negotiators", "faculty" =&gt; "Sebenius", "code" =&gt; "2215", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q4,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[127] = {"title" =&gt; "High Performance Collaboration in a Global Economy", "faculty" =&gt; "Neeley", "code" =&gt; "2020", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "01:30 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[128] = {"title" =&gt; "How Star Women Succeed: Leading Effective Careers and Organizations", "faculty" =&gt; "Groysberg", "code" =&gt; "2062", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[129] = {"title" =&gt; "I-LAB Course: Cultural Entrepreneurship in New York City", "faculty" =&gt; "Eisenmann", "code" =&gt; "6075", "section" =&gt; "0", "day" =&gt; " ", "time" =&gt; " ", "location" =&gt; "", "quarter_credits" =&gt; "J,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[130] = {"title" =&gt; "I-LAB Course: Design Thinking", "faculty" =&gt; "Datar", "code" =&gt; "6085", "section" =&gt; "0", "day" =&gt; "W", "time" =&gt; "06:45 PM", "location" =&gt; "", "quarter_credits" =&gt; "J,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[131] = {"title" =&gt; "Institutions, Macroeconomics and the Global Economy", "faculty" =&gt; "Di Tella", "code" =&gt; "1180", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[132] = {"title" =&gt; "Institutions, Macroeconomics and the Global Economy", "faculty" =&gt; "Di Tella", "code" =&gt; "1180", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[133] = {"title" =&gt; "Institutions, Macroeconomics and the Global Economy", "faculty" =&gt; "Iyer", "code" =&gt; "1180", "section" =&gt; "3", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[134] = {"title" =&gt; "Introduction to Tax Decisions by Individuals and Companies", "faculty" =&gt; "Pozen", "code" =&gt; "1488", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[135] = {"title" =&gt; "IXP Course: China; Current Challenges, Future Opportunities", "faculty" =&gt; "Marquis", "code" =&gt; "6045", "section" =&gt; "1", "day" =&gt; "W", "time" =&gt; "06:45 PM", "location" =&gt; "", "quarter_credits" =&gt; "J,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[136] = {"title" =&gt; "IXP Course: China; Current Challenges, Future Opportunities", "faculty" =&gt; "Kirby", "code" =&gt; "6045", "section" =&gt; "2", "day" =&gt; "W", "time" =&gt; "06:45 PM", "location" =&gt; "", "quarter_credits" =&gt; "J,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[137] = {"title" =&gt; "IXP Course: Competing with Social Networks - California", "faculty" =&gt; "Piskorski", "code" =&gt; "6017", "section" =&gt; "0", "day" =&gt; "F", "time" =&gt; "03:30 PM", "location" =&gt; "", "quarter_credits" =&gt; "J,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[138] = {"title" =&gt; "IXP Course: Japan; Innovating for Recovery: Business Strategy and Entrepreneurship", "faculty" =&gt; "Takeuchi", "code" =&gt; "6062", "section" =&gt; "0", "day" =&gt; "W", "time" =&gt; "06:45 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[139] = {"title" =&gt; "Knowledge-Based Strategy", "faculty" =&gt; "Takeuchi", "code" =&gt; "1215", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q4,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[140] = {"title" =&gt; "Launching Global Ventures", "faculty" =&gt; "Kerr", "code" =&gt; "1627", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[141] = {"title" =&gt; "Launching Technology Ventures", "faculty" =&gt; "Eisenmann", "code" =&gt; "1755", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[142] = {"title" =&gt; "Launching Technology Ventures", "faculty" =&gt; "Bussgang", "code" =&gt; "1755", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "01:45 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[143] = {"title" =&gt; "Leading Professional Service Firms", "faculty" =&gt; "Eccles;  Gardner", "code" =&gt; "1770", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[144] = {"title" =&gt; "Managing Global Health: Applying Behavioral Economics to Create Impact", "faculty" =&gt; "Ashraf", "code" =&gt; "2230", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[145] = {"title" =&gt; "Managing Service Operations", "faculty" =&gt; "Tucker", "code" =&gt; "2120", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[146] = {"title" =&gt; "Managing Service Operations", "faculty" =&gt; "Tucker", "code" =&gt; "2120", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[147] = {"title" =&gt; "Managing Social Enterprise", "faculty" =&gt; "Ebrahim", "code" =&gt; "1582", "section" =&gt; "0", "day" =&gt; "TU", "time" =&gt; "03:30 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[148] = {"title" =&gt; "Managing the Financial Firm", "faculty" =&gt; "Scharfstein", "code" =&gt; "1509", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[149] = {"title" =&gt; "Managing, Organizing &amp; Motivating for Value", "faculty" =&gt; "Wasynczuk", "code" =&gt; "1816", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[150] = {"title" =&gt; "Managing, Organizing &amp; Motivating for Value", "faculty" =&gt; "Hall", "code" =&gt; "1816", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[151] = {"title" =&gt; "Negotiation", "faculty" =&gt; "Brooks", "code" =&gt; "2240", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[152] = {"title" =&gt; "Negotiation", "faculty" =&gt; "Beshears", "code" =&gt; "2240", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[153] = {"title" =&gt; "Negotiation Intensive Course", "faculty" =&gt; "Sebenius", "code" =&gt; "2241", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[154] = {"title" =&gt; "Power and Glory in Turbulent Times: The History of Leadership from Henry V to Steve Jobs", "faculty" =&gt; "Koehn", "code" =&gt; "1123", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[155] = {"title" =&gt; "Power and Glory in Turbulent Times: The History of Leadership from Henry V to Steve Jobs", "faculty" =&gt; "Koehn", "code" =&gt; "1123", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[156] = {"title" =&gt; "Real Asset Finance", "faculty" =&gt; "Perold", "code" =&gt; "1475", "section" =&gt; "0", "day" =&gt; "TH", "time" =&gt; "03:30 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q4,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[157] = {"title" =&gt; "Real Estate in Frontier Markets", "faculty" =&gt; "Retsinas", "code" =&gt; "1405", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[158] = {"title" =&gt; "Real Estate Private Equity", "faculty" =&gt; "Lietz", "code" =&gt; "1484", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[159] = {"title" =&gt; "Reimagining Capitalism", "faculty" =&gt; "Henderson", "code" =&gt; "1524", "section" =&gt; "1", "day" =&gt; "X", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[160] = {"title" =&gt; "Reimagining Capitalism", "faculty" =&gt; "Rose", "code" =&gt; "1524", "section" =&gt; "2", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[161] = {"title" =&gt; "Reimagining Capitalism", "faculty" =&gt; "Henderson", "code" =&gt; "1524", "section" =&gt; "3", "day" =&gt; "X", "time" =&gt; "01:30 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[162] = {"title" =&gt; "Retailing", "faculty" =&gt; "Alvarez", "code" =&gt; "1952", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "08:30 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[163] = {"title" =&gt; "The Role of Government in Market Economies", "faculty" =&gt; "Weinzierl", "code" =&gt; "1195", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[164] = {"title" =&gt; "Sustainable Cities: Finance, Design, and Innovation", "faculty" =&gt; "Macomber", "code" =&gt; "1487", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[165] = {"title" =&gt; "Understanding and Influencing Operations as an Investor", "faculty" =&gt; "Raman", "code" =&gt; "2135", "section" =&gt; "0", "day" =&gt; "X", "time" =&gt; "01:15 PM", "location" =&gt; "", "quarter_credits" =&gt; "Q3,1.5", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[166] = {"title" =&gt; "Venture Capital and Private Equity", "faculty" =&gt; "Rhodes-Kropf", "code" =&gt; "1428", "section" =&gt; "1", "day" =&gt; "Y", "time" =&gt; "10:05 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[167] = {"title" =&gt; "Venture Capital and Private Equity", "faculty" =&gt; "Rhodes-Kropf", "code" =&gt; "1428", "section" =&gt; "2", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q3Q4,3", "term" =&gt; "Winter 2014", }</t>
+  </si>
+  <si>
+    <t>courses[168] = {"title" =&gt; "Venture Capital in Historical Perspective", "faculty" =&gt; "Hardymon;  Nicholas", "code" =&gt; "1125", "section" =&gt; "0", "day" =&gt; "Y", "time" =&gt; "11:40 AM", "location" =&gt; "", "quarter_credits" =&gt; "Q4,1.5", "term" =&gt; "Winter 2014", }</t>
   </si>
 </sst>
 </file>
@@ -773,11 +1280,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -850,7 +1380,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -906,6 +1436,29 @@
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA107"/>
+  <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView tabSelected="1" topLeftCell="D66" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79:K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1484,11 +2037,11 @@
         <v>60</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:S3" si="0">" """&amp;N2&amp;""" =&gt; """</f>
-        <v xml:space="preserve"> "title" =&gt; "</v>
+        <f>""""&amp;N2&amp;""" =&gt; """</f>
+        <v>"title" =&gt; "</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N3:S3" si="0">" """&amp;O2&amp;""" =&gt; """</f>
         <v xml:space="preserve"> "faculty" =&gt; "</v>
       </c>
       <c r="P3" t="str">
@@ -1553,7 +2106,7 @@
       </c>
       <c r="N4" t="str">
         <f>N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Agribusiness",</v>
+        <v>"title" =&gt; "Agribusiness",</v>
       </c>
       <c r="O4" t="str">
         <f>O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -1592,12 +2145,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "13:00",</v>
       </c>
       <c r="X4" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA4" t="str">
         <f>$AA$2&amp;M4&amp;"] = {"&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;U4&amp;W4&amp;X4&amp;"}"</f>
-        <v>courses[0] = { "title" =&gt; "Agribusiness", "faculty" =&gt; "David E. Bell", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x"}</v>
+        <v>courses[0] = {"title" =&gt; "Agribusiness", "faculty" =&gt; "David E. Bell", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1633,7 +2186,7 @@
       </c>
       <c r="N5" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Authentic Leadership Development",</v>
+        <v>"title" =&gt; "Authentic Leadership Development",</v>
       </c>
       <c r="O5" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -1672,12 +2225,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "13:00",</v>
       </c>
       <c r="X5" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x*"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x*",</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" ref="AA5:AA68" si="3">$AA$2&amp;M5&amp;"] = {"&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;U5&amp;W5&amp;X5&amp;"}"</f>
-        <v>courses[1] = { "title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "Thomas DeLong", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x*"}</v>
+        <v>courses[1] = {"title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "Thomas DeLong", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x*",}</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1713,7 +2266,7 @@
       </c>
       <c r="N6" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Authentic Leadership Development",</v>
+        <v>"title" =&gt; "Authentic Leadership Development",</v>
       </c>
       <c r="O6" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -1752,12 +2305,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "15:15",</v>
       </c>
       <c r="X6" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x*"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x*",</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="3"/>
-        <v>courses[2] = { "title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "Thomas DeLong", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x*"}</v>
+        <v>courses[2] = {"title" =&gt; "Authentic Leadership Development", "faculty" =&gt; "Thomas DeLong", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x*",}</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1781,7 +2334,7 @@
       </c>
       <c r="N7" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Behavioral and Value Investing",</v>
+        <v>"title" =&gt; "Behavioral and Value Investing",</v>
       </c>
       <c r="O7" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -1820,12 +2373,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X7" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="3"/>
-        <v>courses[3] = { "title" =&gt; "Behavioral and Value Investing", "faculty" =&gt; "Robin Greenwood, Malcolm P. Baker", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[3] = {"title" =&gt; "Behavioral and Value Investing", "faculty" =&gt; "Robin Greenwood, Malcolm P. Baker", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1849,7 +2402,7 @@
       </c>
       <c r="N8" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Branding + Different",</v>
+        <v>"title" =&gt; "Branding + Different",</v>
       </c>
       <c r="O8" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -1888,12 +2441,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X8" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="3"/>
-        <v>courses[4] = { "title" =&gt; "Branding + Different", "faculty" =&gt; "Jill Avery,Youngme Moon", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[4] = {"title" =&gt; "Branding + Different", "faculty" =&gt; "Jill Avery,Youngme Moon", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1929,7 +2482,7 @@
       </c>
       <c r="N9" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Building and Sustaining a Successful Enterprise",</v>
+        <v>"title" =&gt; "Building and Sustaining a Successful Enterprise",</v>
       </c>
       <c r="O9" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -1968,12 +2521,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "09:50",</v>
       </c>
       <c r="X9" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="3"/>
-        <v>courses[5] = { "title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Willy C. Shih", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "08:30", "end_time" =&gt; "09:50", "x_y_time" =&gt; "x"}</v>
+        <v>courses[5] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Willy C. Shih", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "08:30", "end_time" =&gt; "09:50", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -2009,7 +2562,7 @@
       </c>
       <c r="N10" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Building and Sustaining a Successful Enterprise",</v>
+        <v>"title" =&gt; "Building and Sustaining a Successful Enterprise",</v>
       </c>
       <c r="O10" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2048,12 +2601,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "11:25",</v>
       </c>
       <c r="X10" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="3"/>
-        <v>courses[6] = { "title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Chet Huber", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "2", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x"}</v>
+        <v>courses[6] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Chet Huber", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "2", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -2089,7 +2642,7 @@
       </c>
       <c r="N11" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Building and Sustaining a Successful Enterprise",</v>
+        <v>"title" =&gt; "Building and Sustaining a Successful Enterprise",</v>
       </c>
       <c r="O11" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2128,12 +2681,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "13:00",</v>
       </c>
       <c r="X11" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="3"/>
-        <v>courses[7] = { "title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Derek van Bever", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "3", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x"}</v>
+        <v>courses[7] = {"title" =&gt; "Building and Sustaining a Successful Enterprise", "faculty" =&gt; "Derek van Bever", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "3", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -2157,7 +2710,7 @@
       </c>
       <c r="N12" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Business at the Base of the Pyramid ",</v>
+        <v>"title" =&gt; "Business at the Base of the Pyramid ",</v>
       </c>
       <c r="O12" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2196,12 +2749,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X12" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="3"/>
-        <v>courses[8] = { "title" =&gt; "Business at the Base of the Pyramid ", "faculty" =&gt; "Michael Chu", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[8] = {"title" =&gt; "Business at the Base of the Pyramid ", "faculty" =&gt; "Michael Chu", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -2225,7 +2778,7 @@
       </c>
       <c r="N13" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Collaborating in a Global Economy",</v>
+        <v>"title" =&gt; "Collaborating in a Global Economy",</v>
       </c>
       <c r="O13" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2264,12 +2817,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X13" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="3"/>
-        <v>courses[9] = { "title" =&gt; "Collaborating in a Global Economy", "faculty" =&gt; "Tsedal Neeley", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[9] = {"title" =&gt; "Collaborating in a Global Economy", "faculty" =&gt; "Tsedal Neeley", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -2305,7 +2858,7 @@
       </c>
       <c r="N14" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Competing with Social Networks",</v>
+        <v>"title" =&gt; "Competing with Social Networks",</v>
       </c>
       <c r="O14" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2344,12 +2897,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "09:50",</v>
       </c>
       <c r="X14" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="3"/>
-        <v>courses[10] = { "title" =&gt; "Competing with Social Networks", "faculty" =&gt; "Mikolaj Piskorski", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "08:30", "end_time" =&gt; "09:50", "x_y_time" =&gt; "x"}</v>
+        <v>courses[10] = {"title" =&gt; "Competing with Social Networks", "faculty" =&gt; "Mikolaj Piskorski", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "08:30", "end_time" =&gt; "09:50", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -2385,7 +2938,7 @@
       </c>
       <c r="N15" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Competing with Social Networks",</v>
+        <v>"title" =&gt; "Competing with Social Networks",</v>
       </c>
       <c r="O15" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2424,12 +2977,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "11:25",</v>
       </c>
       <c r="X15" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="3"/>
-        <v>courses[11] = { "title" =&gt; "Competing with Social Networks", "faculty" =&gt; "Mikolaj Piskorski", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x"}</v>
+        <v>courses[11] = {"title" =&gt; "Competing with Social Networks", "faculty" =&gt; "Mikolaj Piskorski", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -2453,7 +3006,7 @@
       </c>
       <c r="N16" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Corporate Strategy",</v>
+        <v>"title" =&gt; "Corporate Strategy",</v>
       </c>
       <c r="O16" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2492,12 +3045,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X16" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="3"/>
-        <v>courses[12] = { "title" =&gt; "Corporate Strategy", "faculty" =&gt; "David J. Collis", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[12] = {"title" =&gt; "Corporate Strategy", "faculty" =&gt; "David J. Collis", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="17" spans="3:27">
@@ -2533,7 +3086,7 @@
       </c>
       <c r="N17" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Creating the Modern Financial System",</v>
+        <v>"title" =&gt; "Creating the Modern Financial System",</v>
       </c>
       <c r="O17" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2572,12 +3125,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "13:00",</v>
       </c>
       <c r="X17" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="3"/>
-        <v>courses[13] = { "title" =&gt; "Creating the Modern Financial System", "faculty" =&gt; "David Moss", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x"}</v>
+        <v>courses[13] = {"title" =&gt; "Creating the Modern Financial System", "faculty" =&gt; "David Moss", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="18" spans="3:27">
@@ -2601,7 +3154,7 @@
       </c>
       <c r="N18" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Creating Value Through Corporate Restructuring",</v>
+        <v>"title" =&gt; "Creating Value Through Corporate Restructuring",</v>
       </c>
       <c r="O18" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2640,12 +3193,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X18" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="3"/>
-        <v>courses[14] = { "title" =&gt; "Creating Value Through Corporate Restructuring", "faculty" =&gt; "Stuart Gilson, Kristin Williams Mugford", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[14] = {"title" =&gt; "Creating Value Through Corporate Restructuring", "faculty" =&gt; "Stuart Gilson, Kristin Williams Mugford", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="19" spans="3:27">
@@ -2669,7 +3222,7 @@
       </c>
       <c r="N19" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Creative High-Impact Ventures: Entrepreneurs Who Changed The World",</v>
+        <v>"title" =&gt; "Creative High-Impact Ventures: Entrepreneurs Who Changed The World",</v>
       </c>
       <c r="O19" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2708,12 +3261,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X19" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="3"/>
-        <v>courses[15] = { "title" =&gt; "Creative High-Impact Ventures: Entrepreneurs Who Changed The World", "faculty" =&gt; "Mukti Khaire", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[15] = {"title" =&gt; "Creative High-Impact Ventures: Entrepreneurs Who Changed The World", "faculty" =&gt; "Mukti Khaire", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="20" spans="3:27">
@@ -2749,7 +3302,7 @@
       </c>
       <c r="N20" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Deals",</v>
+        <v>"title" =&gt; "Deals",</v>
       </c>
       <c r="O20" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2788,12 +3341,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "15:15",</v>
       </c>
       <c r="X20" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="3"/>
-        <v>courses[16] = { "title" =&gt; "Deals", "faculty" =&gt; "Kevin Mohan", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x"}</v>
+        <v>courses[16] = {"title" =&gt; "Deals", "faculty" =&gt; "Kevin Mohan", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="21" spans="3:27">
@@ -2817,7 +3370,7 @@
       </c>
       <c r="N21" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Designing Competitive Organizations",</v>
+        <v>"title" =&gt; "Designing Competitive Organizations",</v>
       </c>
       <c r="O21" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2856,12 +3409,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X21" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA21" t="str">
         <f t="shared" si="3"/>
-        <v>courses[17] = { "title" =&gt; "Designing Competitive Organizations", "faculty" =&gt; "Robert Simons, Anette Mikes", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[17] = {"title" =&gt; "Designing Competitive Organizations", "faculty" =&gt; "Robert Simons, Anette Mikes", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="22" spans="3:27">
@@ -2897,7 +3450,7 @@
       </c>
       <c r="N22" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Digital Innovation and Transformation",</v>
+        <v>"title" =&gt; "Digital Innovation and Transformation",</v>
       </c>
       <c r="O22" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -2936,12 +3489,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "09:50",</v>
       </c>
       <c r="X22" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA22" t="str">
         <f t="shared" si="3"/>
-        <v>courses[18] = { "title" =&gt; "Digital Innovation and Transformation", "faculty" =&gt; "Karim R. Lakhani", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "08:30", "end_time" =&gt; "09:50", "x_y_time" =&gt; "x"}</v>
+        <v>courses[18] = {"title" =&gt; "Digital Innovation and Transformation", "faculty" =&gt; "Karim R. Lakhani", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "08:30", "end_time" =&gt; "09:50", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="23" spans="3:27">
@@ -2977,7 +3530,7 @@
       </c>
       <c r="N23" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Digital Innovation and Transformation",</v>
+        <v>"title" =&gt; "Digital Innovation and Transformation",</v>
       </c>
       <c r="O23" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3016,12 +3569,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "11:25",</v>
       </c>
       <c r="X23" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA23" t="str">
         <f t="shared" si="3"/>
-        <v>courses[19] = { "title" =&gt; "Digital Innovation and Transformation", "faculty" =&gt; "Marco Iansiti", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x"}</v>
+        <v>courses[19] = {"title" =&gt; "Digital Innovation and Transformation", "faculty" =&gt; "Marco Iansiti", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="24" spans="3:27">
@@ -3045,7 +3598,7 @@
       </c>
       <c r="N24" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Digital Marketing Strategy",</v>
+        <v>"title" =&gt; "Digital Marketing Strategy",</v>
       </c>
       <c r="O24" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3084,12 +3637,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X24" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA24" t="str">
         <f t="shared" si="3"/>
-        <v>courses[20] = { "title" =&gt; "Digital Marketing Strategy", "faculty" =&gt; "Thales S. Teixeira", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[20] = {"title" =&gt; "Digital Marketing Strategy", "faculty" =&gt; "Thales S. Teixeira", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="25" spans="3:27">
@@ -3113,7 +3666,7 @@
       </c>
       <c r="N25" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Doing Business in China",</v>
+        <v>"title" =&gt; "Doing Business in China",</v>
       </c>
       <c r="O25" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3152,12 +3705,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X25" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA25" t="str">
         <f t="shared" si="3"/>
-        <v>courses[21] = { "title" =&gt; "Doing Business in China", "faculty" =&gt; "William Kirby", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[21] = {"title" =&gt; "Doing Business in China", "faculty" =&gt; "William Kirby", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="26" spans="3:27">
@@ -3181,7 +3734,7 @@
       </c>
       <c r="N26" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Enterprise Risk Management:  Strategy and Leadership in the face of Large-Scale Uncertainties",</v>
+        <v>"title" =&gt; "Enterprise Risk Management:  Strategy and Leadership in the face of Large-Scale Uncertainties",</v>
       </c>
       <c r="O26" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3220,12 +3773,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X26" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA26" t="str">
         <f t="shared" si="3"/>
-        <v>courses[22] = { "title" =&gt; "Enterprise Risk Management:  Strategy and Leadership in the face of Large-Scale Uncertainties", "faculty" =&gt; "Herman B. Leonard", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[22] = {"title" =&gt; "Enterprise Risk Management:  Strategy and Leadership in the face of Large-Scale Uncertainties", "faculty" =&gt; "Herman B. Leonard", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="27" spans="3:27">
@@ -3249,7 +3802,7 @@
       </c>
       <c r="N27" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Entrepreneurial Solutions for Market Failure",</v>
+        <v>"title" =&gt; "Entrepreneurial Solutions for Market Failure",</v>
       </c>
       <c r="O27" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3288,12 +3841,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X27" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA27" t="str">
         <f t="shared" si="3"/>
-        <v>courses[23] = { "title" =&gt; "Entrepreneurial Solutions for Market Failure", "faculty" =&gt; "Joseph L. Bower", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[23] = {"title" =&gt; "Entrepreneurial Solutions for Market Failure", "faculty" =&gt; "Joseph L. Bower", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="28" spans="3:27">
@@ -3317,7 +3870,7 @@
       </c>
       <c r="N28" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Entrepreneurship in Education Reform",</v>
+        <v>"title" =&gt; "Entrepreneurship in Education Reform",</v>
       </c>
       <c r="O28" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3356,12 +3909,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X28" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA28" t="str">
         <f t="shared" si="3"/>
-        <v>courses[24] = { "title" =&gt; "Entrepreneurship in Education Reform", "faculty" =&gt; "John Jong-Hyun Kim", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[24] = {"title" =&gt; "Entrepreneurship in Education Reform", "faculty" =&gt; "John Jong-Hyun Kim", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="29" spans="3:27">
@@ -3385,7 +3938,7 @@
       </c>
       <c r="N29" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Field Course: Entrepreneurial Solutions for Market Failure",</v>
+        <v>"title" =&gt; "Field Course: Entrepreneurial Solutions for Market Failure",</v>
       </c>
       <c r="O29" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3424,12 +3977,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X29" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA29" t="str">
         <f t="shared" si="3"/>
-        <v>courses[25] = { "title" =&gt; "Field Course: Entrepreneurial Solutions for Market Failure", "faculty" =&gt; "Joseph L. Bower", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[25] = {"title" =&gt; "Field Course: Entrepreneurial Solutions for Market Failure", "faculty" =&gt; "Joseph L. Bower", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="30" spans="3:27">
@@ -3453,7 +4006,7 @@
       </c>
       <c r="N30" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Field Course: Entrepreneurship through Acquisition",</v>
+        <v>"title" =&gt; "Field Course: Entrepreneurship through Acquisition",</v>
       </c>
       <c r="O30" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3492,12 +4045,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X30" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA30" t="str">
         <f t="shared" si="3"/>
-        <v>courses[26] = { "title" =&gt; "Field Course: Entrepreneurship through Acquisition", "faculty" =&gt; "Richard S. Ruback, Royce Yudkoff", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[26] = {"title" =&gt; "Field Course: Entrepreneurship through Acquisition", "faculty" =&gt; "Richard S. Ruback, Royce Yudkoff", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="31" spans="3:27">
@@ -3521,7 +4074,7 @@
       </c>
       <c r="N31" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Field Course: Housing in the United States",</v>
+        <v>"title" =&gt; "Field Course: Housing in the United States",</v>
       </c>
       <c r="O31" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3560,12 +4113,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X31" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA31" t="str">
         <f t="shared" si="3"/>
-        <v>courses[27] = { "title" =&gt; "Field Course: Housing in the United States", "faculty" =&gt; "Nicolas Retsinas", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[27] = {"title" =&gt; "Field Course: Housing in the United States", "faculty" =&gt; "Nicolas Retsinas", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="32" spans="3:27">
@@ -3589,7 +4142,7 @@
       </c>
       <c r="N32" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Field Course: Impact Investing and Social Commercial Models(also listed under Finance and General Management)",</v>
+        <v>"title" =&gt; "Field Course: Impact Investing and Social Commercial Models(also listed under Finance and General Management)",</v>
       </c>
       <c r="O32" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3628,12 +4181,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X32" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA32" t="str">
         <f t="shared" si="3"/>
-        <v>courses[28] = { "title" =&gt; "Field Course: Impact Investing and Social Commercial Models(also listed under Finance and General Management)", "faculty" =&gt; "Michael Chu,Shawn Cole", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[28] = {"title" =&gt; "Field Course: Impact Investing and Social Commercial Models(also listed under Finance and General Management)", "faculty" =&gt; "Michael Chu,Shawn Cole", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="33" spans="3:27">
@@ -3669,7 +4222,7 @@
       </c>
       <c r="N33" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Field Course: Launching Technology Ventures",</v>
+        <v>"title" =&gt; "Field Course: Launching Technology Ventures",</v>
       </c>
       <c r="O33" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3708,12 +4261,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "13:00",</v>
       </c>
       <c r="X33" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA33" t="str">
         <f t="shared" si="3"/>
-        <v>courses[29] = { "title" =&gt; "Field Course: Launching Technology Ventures", "faculty" =&gt; "Thomas R. Eisenmann", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x"}</v>
+        <v>courses[29] = {"title" =&gt; "Field Course: Launching Technology Ventures", "faculty" =&gt; "Thomas R. Eisenmann", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="34" spans="3:27">
@@ -3737,7 +4290,7 @@
       </c>
       <c r="N34" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Field Course: Planning Your Business in China",</v>
+        <v>"title" =&gt; "Field Course: Planning Your Business in China",</v>
       </c>
       <c r="O34" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3776,12 +4329,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X34" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA34" t="str">
         <f t="shared" si="3"/>
-        <v>courses[30] = { "title" =&gt; "Field Course: Planning Your Business in China", "faculty" =&gt; "William C. Kirby", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[30] = {"title" =&gt; "Field Course: Planning Your Business in China", "faculty" =&gt; "William C. Kirby", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="35" spans="3:27">
@@ -3805,7 +4358,7 @@
       </c>
       <c r="N35" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Field Course: Product Management 102",</v>
+        <v>"title" =&gt; "Field Course: Product Management 102",</v>
       </c>
       <c r="O35" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3844,12 +4397,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X35" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA35" t="str">
         <f t="shared" si="3"/>
-        <v>courses[31] = { "title" =&gt; "Field Course: Product Management 102", "faculty" =&gt; "Thomas R. Eisenmann", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[31] = {"title" =&gt; "Field Course: Product Management 102", "faculty" =&gt; "Thomas R. Eisenmann", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="36" spans="3:27">
@@ -3873,7 +4426,7 @@
       </c>
       <c r="N36" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Field Course: Stock Pitching",</v>
+        <v>"title" =&gt; "Field Course: Stock Pitching",</v>
       </c>
       <c r="O36" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3912,12 +4465,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X36" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA36" t="str">
         <f t="shared" si="3"/>
-        <v>courses[32] = { "title" =&gt; "Field Course: Stock Pitching", "faculty" =&gt; "Lauren Cohen", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[32] = {"title" =&gt; "Field Course: Stock Pitching", "faculty" =&gt; "Lauren Cohen", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="37" spans="3:27">
@@ -3941,7 +4494,7 @@
       </c>
       <c r="N37" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "General Management: Processes and Action",</v>
+        <v>"title" =&gt; "General Management: Processes and Action",</v>
       </c>
       <c r="O37" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -3980,12 +4533,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X37" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA37" t="str">
         <f t="shared" si="3"/>
-        <v>courses[33] = { "title" =&gt; "General Management: Processes and Action", "faculty" =&gt; "David Garvin", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[33] = {"title" =&gt; "General Management: Processes and Action", "faculty" =&gt; "David Garvin", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="38" spans="3:27">
@@ -4009,7 +4562,7 @@
       </c>
       <c r="N38" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Global Strategic Management",</v>
+        <v>"title" =&gt; "Global Strategic Management",</v>
       </c>
       <c r="O38" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4048,12 +4601,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X38" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA38" t="str">
         <f t="shared" si="3"/>
-        <v>courses[34] = { "title" =&gt; "Global Strategic Management", "faculty" =&gt; "Jordan Siegel", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[34] = {"title" =&gt; "Global Strategic Management", "faculty" =&gt; "Jordan Siegel", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="39" spans="3:27">
@@ -4077,7 +4630,7 @@
       </c>
       <c r="N39" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Great Negotiators",</v>
+        <v>"title" =&gt; "Great Negotiators",</v>
       </c>
       <c r="O39" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4116,12 +4669,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X39" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA39" t="str">
         <f t="shared" si="3"/>
-        <v>courses[35] = { "title" =&gt; "Great Negotiators", "faculty" =&gt; "James K. Sebenius", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[35] = {"title" =&gt; "Great Negotiators", "faculty" =&gt; "James K. Sebenius", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="40" spans="3:27">
@@ -4157,7 +4710,7 @@
       </c>
       <c r="N40" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "How Star Women Succeed: Leading Effective Careers and Organizations",</v>
+        <v>"title" =&gt; "How Star Women Succeed: Leading Effective Careers and Organizations",</v>
       </c>
       <c r="O40" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4196,12 +4749,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "13:00",</v>
       </c>
       <c r="X40" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA40" t="str">
         <f t="shared" si="3"/>
-        <v>courses[36] = { "title" =&gt; "How Star Women Succeed: Leading Effective Careers and Organizations", "faculty" =&gt; "Boris Groysberg", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x"}</v>
+        <v>courses[36] = {"title" =&gt; "How Star Women Succeed: Leading Effective Careers and Organizations", "faculty" =&gt; "Boris Groysberg", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="41" spans="3:27">
@@ -4237,7 +4790,7 @@
       </c>
       <c r="N41" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Institutions, Macroeconomics, and the Global Economy",</v>
+        <v>"title" =&gt; "Institutions, Macroeconomics, and the Global Economy",</v>
       </c>
       <c r="O41" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4276,12 +4829,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "09:50",</v>
       </c>
       <c r="X41" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA41" t="str">
         <f t="shared" si="3"/>
-        <v>courses[37] = { "title" =&gt; "Institutions, Macroeconomics, and the Global Economy", "faculty" =&gt; "Rafael M. Di Tella,Lakshmi Iyer", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "08:30", "end_time" =&gt; "09:50", "x_y_time" =&gt; "x"}</v>
+        <v>courses[37] = {"title" =&gt; "Institutions, Macroeconomics, and the Global Economy", "faculty" =&gt; "Rafael M. Di Tella,Lakshmi Iyer", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "08:30", "end_time" =&gt; "09:50", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="42" spans="3:27">
@@ -4317,7 +4870,7 @@
       </c>
       <c r="N42" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Institutions, Macroeconomics, and the Global Economy",</v>
+        <v>"title" =&gt; "Institutions, Macroeconomics, and the Global Economy",</v>
       </c>
       <c r="O42" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4356,12 +4909,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "11:25",</v>
       </c>
       <c r="X42" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA42" t="str">
         <f t="shared" si="3"/>
-        <v>courses[38] = { "title" =&gt; "Institutions, Macroeconomics, and the Global Economy", "faculty" =&gt; "Rafael M. Di Tella,Lakshmi Iyer", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x"}</v>
+        <v>courses[38] = {"title" =&gt; "Institutions, Macroeconomics, and the Global Economy", "faculty" =&gt; "Rafael M. Di Tella,Lakshmi Iyer", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="43" spans="3:27">
@@ -4397,7 +4950,7 @@
       </c>
       <c r="N43" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Introduction to Tax Decisions by Individuals and Companies",</v>
+        <v>"title" =&gt; "Introduction to Tax Decisions by Individuals and Companies",</v>
       </c>
       <c r="O43" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4436,12 +4989,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "09:50",</v>
       </c>
       <c r="X43" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA43" t="str">
         <f t="shared" si="3"/>
-        <v>courses[39] = { "title" =&gt; "Introduction to Tax Decisions by Individuals and Companies", "faculty" =&gt; "Robert C. Pozen", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "08:30", "end_time" =&gt; "09:50", "x_y_time" =&gt; "x"}</v>
+        <v>courses[39] = {"title" =&gt; "Introduction to Tax Decisions by Individuals and Companies", "faculty" =&gt; "Robert C. Pozen", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "08:30", "end_time" =&gt; "09:50", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="44" spans="3:27">
@@ -4465,7 +5018,7 @@
       </c>
       <c r="N44" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Knowledge-Based Strategy",</v>
+        <v>"title" =&gt; "Knowledge-Based Strategy",</v>
       </c>
       <c r="O44" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4504,12 +5057,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X44" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA44" t="str">
         <f t="shared" si="3"/>
-        <v>courses[40] = { "title" =&gt; "Knowledge-Based Strategy", "faculty" =&gt; "Hirotaka Takeuchi", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[40] = {"title" =&gt; "Knowledge-Based Strategy", "faculty" =&gt; "Hirotaka Takeuchi", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="45" spans="3:27">
@@ -4545,7 +5098,7 @@
       </c>
       <c r="N45" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Launching Global Ventures",</v>
+        <v>"title" =&gt; "Launching Global Ventures",</v>
       </c>
       <c r="O45" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4584,12 +5137,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "13:00",</v>
       </c>
       <c r="X45" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA45" t="str">
         <f t="shared" si="3"/>
-        <v>courses[41] = { "title" =&gt; "Launching Global Ventures", "faculty" =&gt; "William R. Kerr", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x"}</v>
+        <v>courses[41] = {"title" =&gt; "Launching Global Ventures", "faculty" =&gt; "William R. Kerr", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="46" spans="3:27">
@@ -4625,7 +5178,7 @@
       </c>
       <c r="N46" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Launching Technology Ventures",</v>
+        <v>"title" =&gt; "Launching Technology Ventures",</v>
       </c>
       <c r="O46" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4664,12 +5217,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "13:00",</v>
       </c>
       <c r="X46" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA46" t="str">
         <f t="shared" si="3"/>
-        <v>courses[42] = { "title" =&gt; "Launching Technology Ventures", "faculty" =&gt; "Thomas R. Eisenmann", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x"}</v>
+        <v>courses[42] = {"title" =&gt; "Launching Technology Ventures", "faculty" =&gt; "Thomas R. Eisenmann", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="47" spans="3:27">
@@ -4705,7 +5258,7 @@
       </c>
       <c r="N47" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Launching Technology Ventures",</v>
+        <v>"title" =&gt; "Launching Technology Ventures",</v>
       </c>
       <c r="O47" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4744,12 +5297,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "15:15",</v>
       </c>
       <c r="X47" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA47" t="str">
         <f t="shared" si="3"/>
-        <v>courses[43] = { "title" =&gt; "Launching Technology Ventures", "faculty" =&gt; "Jeffrey Bussgang", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "1", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x"}</v>
+        <v>courses[43] = {"title" =&gt; "Launching Technology Ventures", "faculty" =&gt; "Jeffrey Bussgang", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "1", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="48" spans="3:27">
@@ -4773,7 +5326,7 @@
       </c>
       <c r="N48" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Leading Professional Service Firms",</v>
+        <v>"title" =&gt; "Leading Professional Service Firms",</v>
       </c>
       <c r="O48" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4812,12 +5365,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X48" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA48" t="str">
         <f t="shared" si="3"/>
-        <v>courses[44] = { "title" =&gt; "Leading Professional Service Firms", "faculty" =&gt; "Heidi K. Gardner,Robert G. Eccles", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[44] = {"title" =&gt; "Leading Professional Service Firms", "faculty" =&gt; "Heidi K. Gardner,Robert G. Eccles", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="49" spans="3:27">
@@ -4841,7 +5394,7 @@
       </c>
       <c r="N49" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Managing Global Health: Applying Behavioral Economics to Create Impact",</v>
+        <v>"title" =&gt; "Managing Global Health: Applying Behavioral Economics to Create Impact",</v>
       </c>
       <c r="O49" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4880,12 +5433,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X49" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA49" t="str">
         <f t="shared" si="3"/>
-        <v>courses[45] = { "title" =&gt; "Managing Global Health: Applying Behavioral Economics to Create Impact", "faculty" =&gt; "Nava Ashraf", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[45] = {"title" =&gt; "Managing Global Health: Applying Behavioral Economics to Create Impact", "faculty" =&gt; "Nava Ashraf", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="50" spans="3:27">
@@ -4909,7 +5462,7 @@
       </c>
       <c r="N50" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Managing Service Operations",</v>
+        <v>"title" =&gt; "Managing Service Operations",</v>
       </c>
       <c r="O50" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -4948,12 +5501,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X50" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA50" t="str">
         <f t="shared" si="3"/>
-        <v>courses[46] = { "title" =&gt; "Managing Service Operations", "faculty" =&gt; "Anita L. Tucker", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[46] = {"title" =&gt; "Managing Service Operations", "faculty" =&gt; "Anita L. Tucker", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="51" spans="3:27">
@@ -4977,7 +5530,7 @@
       </c>
       <c r="N51" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Managing Social Enterprise",</v>
+        <v>"title" =&gt; "Managing Social Enterprise",</v>
       </c>
       <c r="O51" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5016,12 +5569,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X51" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA51" t="str">
         <f t="shared" si="3"/>
-        <v>courses[47] = { "title" =&gt; "Managing Social Enterprise", "faculty" =&gt; "Alnoor Ebrahim", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[47] = {"title" =&gt; "Managing Social Enterprise", "faculty" =&gt; "Alnoor Ebrahim", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="52" spans="3:27">
@@ -5057,7 +5610,7 @@
       </c>
       <c r="N52" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Managing the Financial Firm",</v>
+        <v>"title" =&gt; "Managing the Financial Firm",</v>
       </c>
       <c r="O52" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5096,12 +5649,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "15:15",</v>
       </c>
       <c r="X52" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA52" t="str">
         <f t="shared" si="3"/>
-        <v>courses[48] = { "title" =&gt; "Managing the Financial Firm", "faculty" =&gt; "David S. Scharfstein", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x"}</v>
+        <v>courses[48] = {"title" =&gt; "Managing the Financial Firm", "faculty" =&gt; "David S. Scharfstein", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="53" spans="3:27">
@@ -5125,7 +5678,7 @@
       </c>
       <c r="N53" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Managing, Organizing &amp; Motivating for Value",</v>
+        <v>"title" =&gt; "Managing, Organizing &amp; Motivating for Value",</v>
       </c>
       <c r="O53" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5164,12 +5717,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X53" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA53" t="str">
         <f t="shared" si="3"/>
-        <v>courses[49] = { "title" =&gt; "Managing, Organizing &amp; Motivating for Value", "faculty" =&gt; "Brian Hall, Andrew Wasynczuk", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[49] = {"title" =&gt; "Managing, Organizing &amp; Motivating for Value", "faculty" =&gt; "Brian Hall, Andrew Wasynczuk", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="54" spans="3:27">
@@ -5193,7 +5746,7 @@
       </c>
       <c r="N54" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Negotiation",</v>
+        <v>"title" =&gt; "Negotiation",</v>
       </c>
       <c r="O54" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5232,12 +5785,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X54" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA54" t="str">
         <f t="shared" si="3"/>
-        <v>courses[50] = { "title" =&gt; "Negotiation", "faculty" =&gt; "Alison Wood Brooks, John Beshears", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[50] = {"title" =&gt; "Negotiation", "faculty" =&gt; "Alison Wood Brooks, John Beshears", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="55" spans="3:27">
@@ -5261,7 +5814,7 @@
       </c>
       <c r="N55" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Negotiation Intensive Course",</v>
+        <v>"title" =&gt; "Negotiation Intensive Course",</v>
       </c>
       <c r="O55" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5300,12 +5853,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X55" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA55" t="str">
         <f t="shared" si="3"/>
-        <v>courses[51] = { "title" =&gt; "Negotiation Intensive Course", "faculty" =&gt; "James K. Sebenius", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[51] = {"title" =&gt; "Negotiation Intensive Course", "faculty" =&gt; "James K. Sebenius", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="56" spans="3:27">
@@ -5341,7 +5894,7 @@
       </c>
       <c r="N56" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Power and Glory in Turbulent Times: The History of Leadership from Henry V to Steve Jobs",</v>
+        <v>"title" =&gt; "Power and Glory in Turbulent Times: The History of Leadership from Henry V to Steve Jobs",</v>
       </c>
       <c r="O56" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5380,12 +5933,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "11:25",</v>
       </c>
       <c r="X56" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA56" t="str">
         <f t="shared" si="3"/>
-        <v>courses[52] = { "title" =&gt; "Power and Glory in Turbulent Times: The History of Leadership from Henry V to Steve Jobs", "faculty" =&gt; "Nancy F. Koehn", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x"}</v>
+        <v>courses[52] = {"title" =&gt; "Power and Glory in Turbulent Times: The History of Leadership from Henry V to Steve Jobs", "faculty" =&gt; "Nancy F. Koehn", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="57" spans="3:27">
@@ -5421,7 +5974,7 @@
       </c>
       <c r="N57" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Power and Glory in Turbulent Times: The History of Leadership from Henry V to Steve Jobs",</v>
+        <v>"title" =&gt; "Power and Glory in Turbulent Times: The History of Leadership from Henry V to Steve Jobs",</v>
       </c>
       <c r="O57" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5460,12 +6013,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "13:00",</v>
       </c>
       <c r="X57" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA57" t="str">
         <f t="shared" si="3"/>
-        <v>courses[53] = { "title" =&gt; "Power and Glory in Turbulent Times: The History of Leadership from Henry V to Steve Jobs", "faculty" =&gt; "Nancy F. Koehn", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x"}</v>
+        <v>courses[53] = {"title" =&gt; "Power and Glory in Turbulent Times: The History of Leadership from Henry V to Steve Jobs", "faculty" =&gt; "Nancy F. Koehn", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="58" spans="3:27">
@@ -5489,7 +6042,7 @@
       </c>
       <c r="N58" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Real Asset Finance",</v>
+        <v>"title" =&gt; "Real Asset Finance",</v>
       </c>
       <c r="O58" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5528,12 +6081,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X58" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA58" t="str">
         <f t="shared" si="3"/>
-        <v>courses[54] = { "title" =&gt; "Real Asset Finance", "faculty" =&gt; "Andre F. Perold", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[54] = {"title" =&gt; "Real Asset Finance", "faculty" =&gt; "Andre F. Perold", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="59" spans="3:27">
@@ -5569,7 +6122,7 @@
       </c>
       <c r="N59" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Real Estate in Frontier Markets",</v>
+        <v>"title" =&gt; "Real Estate in Frontier Markets",</v>
       </c>
       <c r="O59" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5608,12 +6161,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "13:00",</v>
       </c>
       <c r="X59" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA59" t="str">
         <f t="shared" si="3"/>
-        <v>courses[55] = { "title" =&gt; "Real Estate in Frontier Markets", "faculty" =&gt; "Nicolas Retsinas", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x"}</v>
+        <v>courses[55] = {"title" =&gt; "Real Estate in Frontier Markets", "faculty" =&gt; "Nicolas Retsinas", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "0", "start_time" =&gt; "11:40", "end_time" =&gt; "13:00", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="60" spans="3:27">
@@ -5637,7 +6190,7 @@
       </c>
       <c r="N60" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Real Estate Private Equity",</v>
+        <v>"title" =&gt; "Real Estate Private Equity",</v>
       </c>
       <c r="O60" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5676,12 +6229,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X60" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA60" t="str">
         <f t="shared" si="3"/>
-        <v>courses[56] = { "title" =&gt; "Real Estate Private Equity", "faculty" =&gt; "Nori Gerardo Lietz", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[56] = {"title" =&gt; "Real Estate Private Equity", "faculty" =&gt; "Nori Gerardo Lietz", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="61" spans="3:27">
@@ -5717,7 +6270,7 @@
       </c>
       <c r="N61" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Reimagining Capitalism",</v>
+        <v>"title" =&gt; "Reimagining Capitalism",</v>
       </c>
       <c r="O61" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5756,12 +6309,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "15:15",</v>
       </c>
       <c r="X61" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA61" t="str">
         <f t="shared" si="3"/>
-        <v>courses[57] = { "title" =&gt; "Reimagining Capitalism", "faculty" =&gt; "Rebecca M. Henderson, Clayton S. Rose", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "2", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x"}</v>
+        <v>courses[57] = {"title" =&gt; "Reimagining Capitalism", "faculty" =&gt; "Rebecca M. Henderson, Clayton S. Rose", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "2", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="62" spans="3:27">
@@ -5797,7 +6350,7 @@
       </c>
       <c r="N62" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Reimagining Capitalism",</v>
+        <v>"title" =&gt; "Reimagining Capitalism",</v>
       </c>
       <c r="O62" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5836,12 +6389,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "11:25",</v>
       </c>
       <c r="X62" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA62" t="str">
         <f t="shared" si="3"/>
-        <v>courses[58] = { "title" =&gt; "Reimagining Capitalism", "faculty" =&gt; "Rebecca M. Henderson,", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x"}</v>
+        <v>courses[58] = {"title" =&gt; "Reimagining Capitalism", "faculty" =&gt; "Rebecca M. Henderson,", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "1", "start_time" =&gt; "10:05", "end_time" =&gt; "11:25", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="63" spans="3:27">
@@ -5877,7 +6430,7 @@
       </c>
       <c r="N63" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Reimagining Capitalism",</v>
+        <v>"title" =&gt; "Reimagining Capitalism",</v>
       </c>
       <c r="O63" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5916,12 +6469,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "15:15",</v>
       </c>
       <c r="X63" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" si="3"/>
-        <v>courses[59] = { "title" =&gt; "Reimagining Capitalism", "faculty" =&gt; "Rebecca M. Henderson,", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "3", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x"}</v>
+        <v>courses[59] = {"title" =&gt; "Reimagining Capitalism", "faculty" =&gt; "Rebecca M. Henderson,", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "3", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="64" spans="3:27">
@@ -5945,7 +6498,7 @@
       </c>
       <c r="N64" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Retailing",</v>
+        <v>"title" =&gt; "Retailing",</v>
       </c>
       <c r="O64" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -5984,12 +6537,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X64" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA64" t="str">
         <f t="shared" si="3"/>
-        <v>courses[60] = { "title" =&gt; "Retailing", "faculty" =&gt; "Jose Alvarez", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[60] = {"title" =&gt; "Retailing", "faculty" =&gt; "Jose Alvarez", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="65" spans="3:27">
@@ -6013,7 +6566,7 @@
       </c>
       <c r="N65" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Role of Government in Market Economies",</v>
+        <v>"title" =&gt; "Role of Government in Market Economies",</v>
       </c>
       <c r="O65" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -6052,12 +6605,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X65" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA65" t="str">
         <f t="shared" si="3"/>
-        <v>courses[61] = { "title" =&gt; "Role of Government in Market Economies", "faculty" =&gt; "Matthew C. Weinzierl", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[61] = {"title" =&gt; "Role of Government in Market Economies", "faculty" =&gt; "Matthew C. Weinzierl", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="66" spans="3:27">
@@ -6093,7 +6646,7 @@
       </c>
       <c r="N66" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Sustainable Cities: Finance, Design, and Innovation",</v>
+        <v>"title" =&gt; "Sustainable Cities: Finance, Design, and Innovation",</v>
       </c>
       <c r="O66" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -6132,12 +6685,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "15:15",</v>
       </c>
       <c r="X66" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA66" t="str">
         <f t="shared" si="3"/>
-        <v>courses[62] = { "title" =&gt; "Sustainable Cities: Finance, Design, and Innovation", "faculty" =&gt; "John D. Macomber", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x"}</v>
+        <v>courses[62] = {"title" =&gt; "Sustainable Cities: Finance, Design, and Innovation", "faculty" =&gt; "John D. Macomber", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="67" spans="3:27">
@@ -6173,7 +6726,7 @@
       </c>
       <c r="N67" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "The Board of Directors and Corporate Governance (also listed under Organizational Behavior)",</v>
+        <v>"title" =&gt; "The Board of Directors and Corporate Governance (also listed under Organizational Behavior)",</v>
       </c>
       <c r="O67" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -6212,12 +6765,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "15:15",</v>
       </c>
       <c r="X67" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA67" t="str">
         <f t="shared" si="3"/>
-        <v>courses[63] = { "title" =&gt; "The Board of Directors and Corporate Governance (also listed under Organizational Behavior)", "faculty" =&gt; "Jay Lorsch, John C. Coates", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x"}</v>
+        <v>courses[63] = {"title" =&gt; "The Board of Directors and Corporate Governance (also listed under Organizational Behavior)", "faculty" =&gt; "Jay Lorsch, John C. Coates", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "0", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="68" spans="3:27">
@@ -6241,7 +6794,7 @@
       </c>
       <c r="N68" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "The Coming of Managerial Capitalism: The United States",</v>
+        <v>"title" =&gt; "The Coming of Managerial Capitalism: The United States",</v>
       </c>
       <c r="O68" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -6280,12 +6833,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X68" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA68" t="str">
         <f t="shared" si="3"/>
-        <v>courses[64] = { "title" =&gt; "The Coming of Managerial Capitalism: The United States", "faculty" =&gt; "Tom Nicholas", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[64] = {"title" =&gt; "The Coming of Managerial Capitalism: The United States", "faculty" =&gt; "Tom Nicholas", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="69" spans="3:27">
@@ -6321,7 +6874,7 @@
       </c>
       <c r="N69" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Understanding and Influencing Operations as an Investor",</v>
+        <v>"title" =&gt; "Understanding and Influencing Operations as an Investor",</v>
       </c>
       <c r="O69" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -6360,12 +6913,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "15:15",</v>
       </c>
       <c r="X69" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; "x"</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "x",</v>
       </c>
       <c r="AA69" t="str">
         <f t="shared" ref="AA69:AA71" si="4">$AA$2&amp;M69&amp;"] = {"&amp;N69&amp;O69&amp;P69&amp;Q69&amp;R69&amp;S69&amp;U69&amp;W69&amp;X69&amp;"}"</f>
-        <v>courses[65] = { "title" =&gt; "Understanding and Influencing Operations as an Investor", "faculty" =&gt; "Ananth Raman", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "0", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x"}</v>
+        <v>courses[65] = {"title" =&gt; "Understanding and Influencing Operations as an Investor", "faculty" =&gt; "Ananth Raman", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3", "credits" =&gt; "1.5", "section" =&gt; "0", "start_time" =&gt; "13:15", "end_time" =&gt; "15:15", "x_y_time" =&gt; "x",}</v>
       </c>
     </row>
     <row r="70" spans="3:27">
@@ -6389,7 +6942,7 @@
       </c>
       <c r="N70" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Venture Capital and Private Equity (also listed under Entrepreneurial Management)",</v>
+        <v>"title" =&gt; "Venture Capital and Private Equity (also listed under Entrepreneurial Management)",</v>
       </c>
       <c r="O70" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -6428,12 +6981,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X70" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="4"/>
-        <v>courses[66] = { "title" =&gt; "Venture Capital and Private Equity (also listed under Entrepreneurial Management)", "faculty" =&gt; "Matthew Rhodes-Kropf", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[66] = {"title" =&gt; "Venture Capital and Private Equity (also listed under Entrepreneurial Management)", "faculty" =&gt; "Matthew Rhodes-Kropf", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q3Q4", "credits" =&gt; "3", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="71" spans="3:27">
@@ -6457,7 +7010,7 @@
       </c>
       <c r="N71" t="str">
         <f>$N$3&amp;Table1[[#This Row],[title]]&amp;""","</f>
-        <v xml:space="preserve"> "title" =&gt; "Venture Capital in Historical Perspective",</v>
+        <v>"title" =&gt; "Venture Capital in Historical Perspective",</v>
       </c>
       <c r="O71" t="str">
         <f>$O$3&amp;Table1[[#This Row],[faculty]]&amp;""","</f>
@@ -6496,12 +7049,12 @@
         <v xml:space="preserve"> "end_time" =&gt; "00:00",</v>
       </c>
       <c r="X71" t="str">
-        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""""</f>
-        <v xml:space="preserve"> "x_y_time" =&gt; ""</v>
+        <f>X$3&amp;Table1[[#This Row],[x_y_time]]&amp;""","</f>
+        <v xml:space="preserve"> "x_y_time" =&gt; "",</v>
       </c>
       <c r="AA71" t="str">
         <f t="shared" si="4"/>
-        <v>courses[67] = { "title" =&gt; "Venture Capital in Historical Perspective", "faculty" =&gt; "Tom Nicholas ,G. Felda Hardymon", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; ""}</v>
+        <v>courses[67] = {"title" =&gt; "Venture Capital in Historical Perspective", "faculty" =&gt; "Tom Nicholas ,G. Felda Hardymon", "term" =&gt; "Winter 2014", "quarter" =&gt; "Q4", "credits" =&gt; "1.5", "section" =&gt; "", "start_time" =&gt; "00:00", "end_time" =&gt; "00:00", "x_y_time" =&gt; "",}</v>
       </c>
     </row>
     <row r="72" spans="3:27">
@@ -6549,26 +7102,26 @@
         <v>41666</v>
       </c>
       <c r="E79" t="str">
-        <f>TEXT(D79, "MM-DD-YY")</f>
-        <v>01-27-14</v>
+        <f>TEXT(D79, "MM-DD-YYYY")</f>
+        <v>01-27-2014</v>
       </c>
       <c r="F79" s="12">
         <v>41667</v>
       </c>
       <c r="G79" t="str">
-        <f>TEXT(F79, "MM-DD-YY")</f>
-        <v>01-28-14</v>
+        <f>TEXT(F79, "MM-DD-YYYY")</f>
+        <v>01-28-2014</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="str">
         <f>$J$78&amp;I79&amp;"]= """&amp;E79&amp; """"</f>
-        <v>x_schedule[0]= "01-27-14"</v>
+        <v>x_schedule[0]= "01-27-2014"</v>
       </c>
       <c r="K79" t="str">
         <f>$K$78&amp;I79&amp;"]= """&amp;G79&amp; """"</f>
-        <v>y_schedule[0]= "01-28-14"</v>
+        <v>y_schedule[0]= "01-28-2014"</v>
       </c>
     </row>
     <row r="80" spans="3:27">
@@ -6576,26 +7129,26 @@
         <v>41668</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" ref="E80:G105" si="7">TEXT(D80, "MM-DD-YY")</f>
-        <v>01-29-14</v>
+        <f t="shared" ref="E80:E106" si="7">TEXT(D80, "MM-DD-YYYY")</f>
+        <v>01-29-2014</v>
       </c>
       <c r="F80" s="12">
         <v>41669</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="7"/>
-        <v>01-30-14</v>
+        <f t="shared" ref="G80:G106" si="8">TEXT(F80, "MM-DD-YYYY")</f>
+        <v>01-30-2014</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" ref="J80:J106" si="8">$J$78&amp;I80&amp;"]= """&amp;E80&amp; """"</f>
-        <v>x_schedule[1]= "01-29-14"</v>
+        <f t="shared" ref="J80:J106" si="9">$J$78&amp;I80&amp;"]= """&amp;E80&amp; """"</f>
+        <v>x_schedule[1]= "01-29-2014"</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" ref="K80:K106" si="9">$K$78&amp;I80&amp;"]= """&amp;G80&amp; """"</f>
-        <v>y_schedule[1]= "01-30-14"</v>
+        <f t="shared" ref="K80:K106" si="10">$K$78&amp;I80&amp;"]= """&amp;G80&amp; """"</f>
+        <v>y_schedule[1]= "01-30-2014"</v>
       </c>
     </row>
     <row r="81" spans="4:11">
@@ -6604,25 +7157,25 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" si="7"/>
-        <v>02-03-14</v>
+        <v>02-03-2014</v>
       </c>
       <c r="F81" s="12">
         <v>41675</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="7"/>
-        <v>02-05-14</v>
+        <f t="shared" si="8"/>
+        <v>02-05-2014</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[2]= "02-03-14"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[2]= "02-03-2014"</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[2]= "02-05-14"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[2]= "02-05-2014"</v>
       </c>
     </row>
     <row r="82" spans="4:11">
@@ -6631,25 +7184,25 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" si="7"/>
-        <v>02-04-14</v>
+        <v>02-04-2014</v>
       </c>
       <c r="F82" s="12">
         <v>41676</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="7"/>
-        <v>02-06-14</v>
+        <f t="shared" si="8"/>
+        <v>02-06-2014</v>
       </c>
       <c r="I82">
         <v>3</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[3]= "02-04-14"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[3]= "02-04-2014"</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[3]= "02-06-14"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[3]= "02-06-2014"</v>
       </c>
     </row>
     <row r="83" spans="4:11">
@@ -6658,25 +7211,25 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" si="7"/>
-        <v>02-10-14</v>
+        <v>02-10-2014</v>
       </c>
       <c r="F83" s="12">
         <v>41677</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="7"/>
-        <v>02-07-14</v>
+        <f t="shared" si="8"/>
+        <v>02-07-2014</v>
       </c>
       <c r="I83">
         <v>4</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[4]= "02-10-14"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[4]= "02-10-2014"</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[4]= "02-07-14"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[4]= "02-07-2014"</v>
       </c>
     </row>
     <row r="84" spans="4:11">
@@ -6685,25 +7238,25 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" si="7"/>
-        <v>02-11-14</v>
+        <v>02-11-2014</v>
       </c>
       <c r="F84" s="12">
         <v>41682</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="7"/>
-        <v>02-12-14</v>
+        <f t="shared" si="8"/>
+        <v>02-12-2014</v>
       </c>
       <c r="I84">
         <v>5</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[5]= "02-11-14"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[5]= "02-11-2014"</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[5]= "02-12-14"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[5]= "02-12-2014"</v>
       </c>
     </row>
     <row r="85" spans="4:11">
@@ -6712,25 +7265,25 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" si="7"/>
-        <v>02-18-14</v>
+        <v>02-18-2014</v>
       </c>
       <c r="F85" s="12">
         <v>41683</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="7"/>
-        <v>02-13-14</v>
+        <f t="shared" si="8"/>
+        <v>02-13-2014</v>
       </c>
       <c r="I85">
         <v>6</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[6]= "02-18-14"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[6]= "02-18-2014"</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[6]= "02-13-14"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[6]= "02-13-2014"</v>
       </c>
     </row>
     <row r="86" spans="4:11">
@@ -6739,25 +7292,25 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" si="7"/>
-        <v>02-19-14</v>
+        <v>02-19-2014</v>
       </c>
       <c r="F86" s="12">
         <v>41684</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="7"/>
-        <v>02-14-14</v>
+        <f t="shared" si="8"/>
+        <v>02-14-2014</v>
       </c>
       <c r="I86">
         <v>7</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[7]= "02-19-14"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[7]= "02-19-2014"</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[7]= "02-14-14"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[7]= "02-14-2014"</v>
       </c>
     </row>
     <row r="87" spans="4:11">
@@ -6766,25 +7319,25 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" si="7"/>
-        <v>02-24-14</v>
+        <v>02-24-2014</v>
       </c>
       <c r="F87" s="12">
         <v>41690</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="7"/>
-        <v>02-20-14</v>
+        <f t="shared" si="8"/>
+        <v>02-20-2014</v>
       </c>
       <c r="I87">
         <v>8</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[8]= "02-24-14"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[8]= "02-24-2014"</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[8]= "02-20-14"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[8]= "02-20-2014"</v>
       </c>
     </row>
     <row r="88" spans="4:11">
@@ -6793,516 +7346,1361 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" si="7"/>
-        <v>02-25-14</v>
+        <v>02-25-2014</v>
       </c>
       <c r="F88" s="12">
         <v>41691</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="7"/>
-        <v>02-21-14</v>
+        <f t="shared" si="8"/>
+        <v>02-21-2014</v>
       </c>
       <c r="I88">
         <v>9</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[9]= "02-25-14"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[9]= "02-25-2014"</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[9]= "02-21-14"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[9]= "02-21-2014"</v>
       </c>
     </row>
     <row r="89" spans="4:11">
       <c r="D89" s="12">
-        <v>41337</v>
+        <v>41702</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="7"/>
-        <v>03-04-13</v>
+        <v>03-04-2014</v>
       </c>
       <c r="F89" s="12">
         <v>41696</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="7"/>
-        <v>02-26-14</v>
+        <f t="shared" si="8"/>
+        <v>02-26-2014</v>
       </c>
       <c r="I89">
         <v>10</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[10]= "03-04-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[10]= "03-04-2014"</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[10]= "02-26-14"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[10]= "02-26-2014"</v>
       </c>
     </row>
     <row r="90" spans="4:11">
       <c r="D90" s="12">
-        <v>41338</v>
+        <v>41703</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="7"/>
-        <v>03-05-13</v>
+        <v>03-05-2014</v>
       </c>
       <c r="F90" s="12">
         <v>41697</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="7"/>
-        <v>02-27-14</v>
+        <f t="shared" si="8"/>
+        <v>02-27-2014</v>
       </c>
       <c r="I90">
         <v>11</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[11]= "03-05-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[11]= "03-05-2014"</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[11]= "02-27-14"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[11]= "02-27-2014"</v>
       </c>
     </row>
     <row r="91" spans="4:11">
       <c r="D91" s="12">
-        <v>41343</v>
+        <v>41708</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="7"/>
-        <v>03-10-13</v>
+        <v>03-10-2014</v>
       </c>
       <c r="F91" s="12">
-        <v>41339</v>
+        <v>41704</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="7"/>
-        <v>03-06-13</v>
+        <f t="shared" si="8"/>
+        <v>03-06-2014</v>
       </c>
       <c r="I91">
         <v>12</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[12]= "03-10-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[12]= "03-10-2014"</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[12]= "03-06-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[12]= "03-06-2014"</v>
       </c>
     </row>
     <row r="92" spans="4:11">
       <c r="D92" s="12">
-        <v>41344</v>
+        <v>41709</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="7"/>
-        <v>03-11-13</v>
+        <v>03-11-2014</v>
       </c>
       <c r="F92" s="12">
-        <v>41340</v>
+        <v>41705</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="7"/>
-        <v>03-07-13</v>
+        <f t="shared" si="8"/>
+        <v>03-07-2014</v>
       </c>
       <c r="I92">
         <v>13</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[13]= "03-11-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[13]= "03-11-2014"</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[13]= "03-07-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[13]= "03-07-2014"</v>
       </c>
     </row>
     <row r="93" spans="4:11">
       <c r="D93" s="12">
-        <v>41357</v>
+        <v>41722</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="7"/>
-        <v>03-24-13</v>
+        <v>03-24-2014</v>
       </c>
       <c r="F93" s="12">
-        <v>41345</v>
+        <v>41710</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="7"/>
-        <v>03-12-13</v>
+        <f t="shared" si="8"/>
+        <v>03-12-2014</v>
       </c>
       <c r="I93">
         <v>14</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[14]= "03-24-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[14]= "03-24-2014"</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[14]= "03-12-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[14]= "03-12-2014"</v>
       </c>
     </row>
     <row r="94" spans="4:11">
       <c r="D94" s="12">
-        <v>41358</v>
+        <v>41723</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="7"/>
-        <v>03-25-13</v>
+        <v>03-25-2014</v>
       </c>
       <c r="F94" s="12">
-        <v>41346</v>
+        <v>41711</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="7"/>
-        <v>03-13-13</v>
+        <f t="shared" si="8"/>
+        <v>03-13-2014</v>
       </c>
       <c r="I94">
         <v>15</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[15]= "03-25-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[15]= "03-25-2014"</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[15]= "03-13-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[15]= "03-13-2014"</v>
       </c>
     </row>
     <row r="95" spans="4:11">
       <c r="D95" s="12">
-        <v>41359</v>
+        <v>41724</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="7"/>
-        <v>03-26-13</v>
+        <v>03-26-2014</v>
       </c>
       <c r="F95" s="12">
-        <v>41347</v>
+        <v>41712</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="7"/>
-        <v>03-14-13</v>
+        <f t="shared" si="8"/>
+        <v>03-14-2014</v>
       </c>
       <c r="I95">
         <v>16</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[16]= "03-26-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[16]= "03-26-2014"</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[16]= "03-14-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[16]= "03-14-2014"</v>
       </c>
     </row>
     <row r="96" spans="4:11">
       <c r="D96" s="12">
-        <v>41364</v>
+        <v>41729</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="7"/>
-        <v>03-31-13</v>
+        <v>03-31-2014</v>
       </c>
       <c r="F96" s="12">
-        <v>41360</v>
+        <v>41725</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="7"/>
-        <v>03-27-13</v>
+        <f t="shared" si="8"/>
+        <v>03-27-2014</v>
       </c>
       <c r="I96">
         <v>17</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[17]= "03-31-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[17]= "03-31-2014"</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[17]= "03-27-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[17]= "03-27-2014"</v>
       </c>
     </row>
     <row r="97" spans="4:11">
       <c r="D97" s="12">
-        <v>41365</v>
+        <v>41730</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="7"/>
-        <v>04-01-13</v>
+        <v>04-01-2014</v>
       </c>
       <c r="F97" s="12">
-        <v>41361</v>
+        <v>41726</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="7"/>
-        <v>03-28-13</v>
+        <f t="shared" si="8"/>
+        <v>03-28-2014</v>
       </c>
       <c r="I97">
         <v>18</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[18]= "04-01-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[18]= "04-01-2014"</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[18]= "03-28-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[18]= "03-28-2014"</v>
       </c>
     </row>
     <row r="98" spans="4:11">
       <c r="D98" s="12">
-        <v>41371</v>
+        <v>41736</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="7"/>
-        <v>04-07-13</v>
+        <v>04-07-2014</v>
       </c>
       <c r="F98" s="12">
-        <v>41366</v>
+        <v>41731</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="7"/>
-        <v>04-02-13</v>
+        <f t="shared" si="8"/>
+        <v>04-02-2014</v>
       </c>
       <c r="I98">
         <v>19</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[19]= "04-07-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[19]= "04-07-2014"</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[19]= "04-02-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[19]= "04-02-2014"</v>
       </c>
     </row>
     <row r="99" spans="4:11">
       <c r="D99" s="12">
-        <v>41372</v>
+        <v>41737</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="7"/>
-        <v>04-08-13</v>
+        <v>04-08-2014</v>
       </c>
       <c r="F99" s="12">
-        <v>41367</v>
+        <v>41732</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="7"/>
-        <v>04-03-13</v>
+        <f t="shared" si="8"/>
+        <v>04-03-2014</v>
       </c>
       <c r="I99">
         <v>20</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[20]= "04-08-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[20]= "04-08-2014"</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[20]= "04-03-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[20]= "04-03-2014"</v>
       </c>
     </row>
     <row r="100" spans="4:11">
       <c r="D100" s="12">
-        <v>41378</v>
+        <v>41743</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="7"/>
-        <v>04-14-13</v>
+        <v>04-14-2014</v>
       </c>
       <c r="F100" s="12">
-        <v>41373</v>
+        <v>41738</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="7"/>
-        <v>04-09-13</v>
+        <f t="shared" si="8"/>
+        <v>04-09-2014</v>
       </c>
       <c r="I100">
         <v>21</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[21]= "04-14-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[21]= "04-14-2014"</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[21]= "04-09-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[21]= "04-09-2014"</v>
       </c>
     </row>
     <row r="101" spans="4:11">
       <c r="D101" s="12">
-        <v>41379</v>
+        <v>41744</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="7"/>
-        <v>04-15-13</v>
+        <v>04-15-2014</v>
       </c>
       <c r="F101" s="12">
-        <v>41374</v>
+        <v>41739</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="7"/>
-        <v>04-10-13</v>
+        <f t="shared" si="8"/>
+        <v>04-10-2014</v>
       </c>
       <c r="I101">
         <v>22</v>
       </c>
       <c r="J101" t="str">
         <f>$J$78&amp;I101&amp;"]= """&amp;E101&amp; """"</f>
-        <v>x_schedule[22]= "04-15-13"</v>
+        <v>x_schedule[22]= "04-15-2014"</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[22]= "04-10-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[22]= "04-10-2014"</v>
       </c>
     </row>
     <row r="102" spans="4:11">
       <c r="D102" s="12">
-        <v>41380</v>
+        <v>41745</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="7"/>
-        <v>04-16-13</v>
+        <v>04-16-2014</v>
       </c>
       <c r="F102" s="12">
-        <v>41381</v>
+        <v>41746</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="7"/>
-        <v>04-17-13</v>
+        <f t="shared" si="8"/>
+        <v>04-17-2014</v>
       </c>
       <c r="I102">
         <v>23</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[23]= "04-16-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[23]= "04-16-2014"</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[23]= "04-17-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[23]= "04-17-2014"</v>
       </c>
     </row>
     <row r="103" spans="4:11">
       <c r="D103" s="12">
-        <v>41386</v>
+        <v>41751</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="7"/>
-        <v>04-22-13</v>
+        <v>04-22-2014</v>
       </c>
       <c r="F103" s="12">
-        <v>41382</v>
+        <v>41747</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="7"/>
-        <v>04-18-13</v>
+        <f t="shared" si="8"/>
+        <v>04-18-2014</v>
       </c>
       <c r="I103">
         <v>24</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[24]= "04-22-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[24]= "04-22-2014"</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[24]= "04-18-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[24]= "04-18-2014"</v>
       </c>
     </row>
     <row r="104" spans="4:11">
       <c r="D104" s="12">
-        <v>41387</v>
+        <v>41752</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="7"/>
-        <v>04-23-13</v>
+        <v>04-23-2014</v>
       </c>
       <c r="F104" s="12">
-        <v>41388</v>
+        <v>41753</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="7"/>
-        <v>04-24-13</v>
+        <f t="shared" si="8"/>
+        <v>04-24-2014</v>
       </c>
       <c r="I104">
         <v>25</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[25]= "04-23-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[25]= "04-23-2014"</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[25]= "04-24-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[25]= "04-24-2014"</v>
       </c>
     </row>
     <row r="105" spans="4:11">
       <c r="D105" s="12">
-        <v>41392</v>
+        <v>41757</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="7"/>
-        <v>04-28-13</v>
+        <v>04-28-2014</v>
       </c>
       <c r="F105" s="12">
-        <v>41394</v>
+        <v>41759</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="7"/>
-        <v>04-30-13</v>
+        <f t="shared" si="8"/>
+        <v>04-30-2014</v>
       </c>
       <c r="I105">
         <v>26</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[26]= "04-28-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[26]= "04-28-2014"</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[26]= "04-30-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[26]= "04-30-2014"</v>
       </c>
     </row>
     <row r="106" spans="4:11">
       <c r="D106" s="12">
-        <v>41393</v>
+        <v>41758</v>
       </c>
       <c r="E106" t="str">
-        <f>TEXT(D106, "MM-DD-YY")</f>
-        <v>04-29-13</v>
+        <f t="shared" si="7"/>
+        <v>04-29-2014</v>
       </c>
       <c r="F106" s="12">
-        <v>41395</v>
+        <v>41760</v>
       </c>
       <c r="G106" t="str">
-        <f>TEXT(F106, "MM-DD-YY")</f>
-        <v>05-01-13</v>
+        <f t="shared" si="8"/>
+        <v>05-01-2014</v>
       </c>
       <c r="I106">
         <v>27</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="8"/>
-        <v>x_schedule[27]= "04-29-13"</v>
+        <f t="shared" si="9"/>
+        <v>x_schedule[27]= "04-29-2014"</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="9"/>
-        <v>y_schedule[27]= "05-01-13"</v>
+        <f t="shared" si="10"/>
+        <v>y_schedule[27]= "05-01-2014"</v>
       </c>
     </row>
     <row r="107" spans="4:11">
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
+    </row>
+    <row r="109" spans="4:11">
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="4:11">
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="4:11">
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="4:11">
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10">
+      <c r="J122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10">
+      <c r="J123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10">
+      <c r="J124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10">
+      <c r="J125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10">
+      <c r="J127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10">
+      <c r="J128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10">
+      <c r="J129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10">
+      <c r="J130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10">
+      <c r="J131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10">
+      <c r="J136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10">
+      <c r="J141" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="10:10">
+      <c r="J143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="10:10">
+      <c r="J144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10">
+      <c r="J145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="10:10">
+      <c r="J146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="10:10">
+      <c r="J147" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="10:10">
+      <c r="J148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="10:10">
+      <c r="J149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="10:10">
+      <c r="J150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="10:10">
+      <c r="J151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="10:10">
+      <c r="J152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="10:10">
+      <c r="J153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="10:10">
+      <c r="J154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="10:10">
+      <c r="J155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="10:10">
+      <c r="J156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="10:10">
+      <c r="J157" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="10:10">
+      <c r="J158" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="10:10">
+      <c r="J159" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="10:10">
+      <c r="J160" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="161" spans="10:10">
+      <c r="J161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="10:10">
+      <c r="J162" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="10:10">
+      <c r="J163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="10:10">
+      <c r="J164" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="10:10">
+      <c r="J165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="10:10">
+      <c r="J166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="10:10">
+      <c r="J167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="10:10">
+      <c r="J168" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="10:10">
+      <c r="J169" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="10:10">
+      <c r="J170" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="10:10">
+      <c r="J171" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="10:10">
+      <c r="J172" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="10:10">
+      <c r="J173" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="10:10">
+      <c r="J174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="10:10">
+      <c r="J175" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="10:10">
+      <c r="J176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="10:10">
+      <c r="J177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="10:10">
+      <c r="J178" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="10:10">
+      <c r="J179" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="10:10">
+      <c r="J180" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="10:10">
+      <c r="J181" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="10:10">
+      <c r="J182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="10:10">
+      <c r="J183" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="10:10">
+      <c r="J184" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="10:10">
+      <c r="J185" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="10:10">
+      <c r="J186" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="10:10">
+      <c r="J187" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="10:10">
+      <c r="J188" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="10:10">
+      <c r="J189" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="10:10">
+      <c r="J190" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="10:10">
+      <c r="J191" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="192" spans="10:10">
+      <c r="J192" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="10:10">
+      <c r="J193" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="10:10">
+      <c r="J194" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="195" spans="10:10">
+      <c r="J195" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="10:10">
+      <c r="J196" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="10:10">
+      <c r="J197" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="10:10">
+      <c r="J198" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="10:10">
+      <c r="J199" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="200" spans="10:10">
+      <c r="J200" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="201" spans="10:10">
+      <c r="J201" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="202" spans="10:10">
+      <c r="J202" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="203" spans="10:10">
+      <c r="J203" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="10:10">
+      <c r="J204" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="205" spans="10:10">
+      <c r="J205" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="10:10">
+      <c r="J206" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="207" spans="10:10">
+      <c r="J207" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="208" spans="10:10">
+      <c r="J208" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="209" spans="10:10">
+      <c r="J209" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="10:10">
+      <c r="J210" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="211" spans="10:10">
+      <c r="J211" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="212" spans="10:10">
+      <c r="J212" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="10:10">
+      <c r="J213" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="214" spans="10:10">
+      <c r="J214" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="215" spans="10:10">
+      <c r="J215" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="216" spans="10:10">
+      <c r="J216" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="217" spans="10:10">
+      <c r="J217" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="218" spans="10:10">
+      <c r="J218" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="219" spans="10:10">
+      <c r="J219" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="220" spans="10:10">
+      <c r="J220" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="221" spans="10:10">
+      <c r="J221" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="222" spans="10:10">
+      <c r="J222" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="223" spans="10:10">
+      <c r="J223" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="224" spans="10:10">
+      <c r="J224" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="225" spans="10:10">
+      <c r="J225" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="226" spans="10:10">
+      <c r="J226" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="227" spans="10:10">
+      <c r="J227" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="228" spans="10:10">
+      <c r="J228" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="229" spans="10:10">
+      <c r="J229" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="230" spans="10:10">
+      <c r="J230" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="231" spans="10:10">
+      <c r="J231" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="232" spans="10:10">
+      <c r="J232" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="233" spans="10:10">
+      <c r="J233" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="234" spans="10:10">
+      <c r="J234" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="235" spans="10:10">
+      <c r="J235" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="236" spans="10:10">
+      <c r="J236" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="237" spans="10:10">
+      <c r="J237" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="238" spans="10:10">
+      <c r="J238" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="239" spans="10:10">
+      <c r="J239" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="240" spans="10:10">
+      <c r="J240" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="241" spans="10:10">
+      <c r="J241" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="242" spans="10:10">
+      <c r="J242" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="243" spans="10:10">
+      <c r="J243" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="244" spans="10:10">
+      <c r="J244" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="245" spans="10:10">
+      <c r="J245" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="246" spans="10:10">
+      <c r="J246" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="247" spans="10:10">
+      <c r="J247" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="248" spans="10:10">
+      <c r="J248" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="249" spans="10:10">
+      <c r="J249" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="250" spans="10:10">
+      <c r="J250" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="251" spans="10:10">
+      <c r="J251" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="252" spans="10:10">
+      <c r="J252" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="253" spans="10:10">
+      <c r="J253" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="254" spans="10:10">
+      <c r="J254" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="255" spans="10:10">
+      <c r="J255" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="256" spans="10:10">
+      <c r="J256" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="257" spans="10:10">
+      <c r="J257" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="258" spans="10:10">
+      <c r="J258" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="259" spans="10:10">
+      <c r="J259" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="260" spans="10:10">
+      <c r="J260" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="261" spans="10:10">
+      <c r="J261" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="262" spans="10:10">
+      <c r="J262" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="263" spans="10:10">
+      <c r="J263" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="264" spans="10:10">
+      <c r="J264" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="265" spans="10:10">
+      <c r="J265" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="266" spans="10:10">
+      <c r="J266" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="267" spans="10:10">
+      <c r="J267" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="268" spans="10:10">
+      <c r="J268" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="269" spans="10:10">
+      <c r="J269" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="270" spans="10:10">
+      <c r="J270" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="271" spans="10:10">
+      <c r="J271" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="272" spans="10:10">
+      <c r="J272" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="273" spans="10:10">
+      <c r="J273" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="274" spans="10:10">
+      <c r="J274" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="275" spans="10:10">
+      <c r="J275" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="276" spans="10:10">
+      <c r="J276" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="277" spans="10:10">
+      <c r="J277" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B4:K70">
